--- a/SourceCode/2024/May 2024/Bhavya/Task 25/input.xlsx
+++ b/SourceCode/2024/May 2024/Bhavya/Task 25/input.xlsx
@@ -1,13 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15">
-  <x:fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <x:workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavy\OneDrive\Desktop\RPA-Developer-in-30-Days\SourceCode\2024\May 2024\Bhavya\Task 25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FE549C3-348C-49F4-ACD5-4BFC91766B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="0" activeTab="0"/>
+    <x:workbookView xWindow="384" yWindow="384" windowWidth="17280" windowHeight="8880" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Sheet2" sheetId="5" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="162913"/>
@@ -20,59 +27,127 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <x:si>
     <x:t>Full Video UiPath Orchestrator for Interview Part 1
 2.4K views3 months ago</x:t>
   </x:si>
   <x:si>
-    <x:t>UiPath UiPath with json for Beginners | part1 json with text and json with api call
-4.2K views2 years ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UiPath ActiveLoans Botsdna usecase solved
-1.8K views1 year ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UiPath RPA guidance | Vajrangtalks | UiPath Learner | Sudheer Nimmagadda | Sharath Raju
-2.4K viewsStreamed 3 years ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UiPath తెలుగులో | Telugu | Init All Settings.xaml | UiPath Re Framework Initialization
-10K viewsStreamed 3 years ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UiPath UiPath 4.4 RPA Developer Live Interview Join Now
-12K viewsStreamed 3 years ago</x:t>
-  </x:si>
-  <x:si>
     <x:t>Full Video UiPath Orchestrator for Interview Part 2
-551 views2 months ago</x:t>
+560 views3 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath developer in 30 days |
+75 views6 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath Complete project training on UiPath test suite vajrangtalks uipath
+20K views3 years ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath UiPath coding Interview Solving
+2.2K viewsStreamed 3 years ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath Day 6 Project discussion and analysis
+181 views6 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath developer in 30 days |
+82 views6 months ago</x:t>
   </x:si>
   <x:si>
     <x:t>UiPath Resume Mastery Your Guide to RPA Job Success Part1
-716 views8 months ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Land Your Dream UiPath Job with a 130% Salary Boost A Step-by-Step Guide
-106 views6 days ago</x:t>
-  </x:si>
-  <x:si>
-    <x:t>UiPath How to solve Shortest Path Automation challenge | Attended Learning | Uipath
-1.2K viewsStreamed 4 years ago</x:t>
+718 views8 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath 2022 09 06 20 07 12 Team Vamsi uipath basics day2
+74 views6 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UiPath developer in 30 days |
+51 views6 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=cBpRwUrIA68&amp;t=1s</x:t>
+  </x:si>
+  <x:si>
+    <x:t>47 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 days ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=Lftrm6d8ICg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>109 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9 days ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=8W8QJDTBXjo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>50 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 weeks ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=nw94QTfCogw</x:t>
+  </x:si>
+  <x:si>
+    <x:t>70 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1 month ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=LccQYO8JXk8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>86 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=yCGthY0Au4E</x:t>
+  </x:si>
+  <x:si>
+    <x:t>95 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2 months ago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.youtube.com/watch?v=uMviGQq55zU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>129 views</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3 months ago</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="2" x14ac:knownFonts="1">
+  <x:fonts count="3" x14ac:knownFonts="1">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:u/>
+      <x:sz val="11"/>
+      <x:color theme="10"/>
       <x:name val="Calibri"/>
       <x:family val="2"/>
       <x:scheme val="minor"/>
@@ -102,13 +177,19 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="3">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="1">
+  <x:cellXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
+    <x:cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -385,17 +466,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:C10"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0"/>
+    <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
-  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -406,7 +487,7 @@
         <x:v>0</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
@@ -417,7 +498,7 @@
         <x:v>1</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:3">
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A3" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
@@ -428,7 +509,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:3">
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A4" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
@@ -439,7 +520,7 @@
         <x:v>3</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:3">
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A5" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -450,7 +531,7 @@
         <x:v>4</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:3">
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A6" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
@@ -461,7 +542,7 @@
         <x:v>5</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:3">
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A7" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -472,7 +553,7 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:3">
+    <x:row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A8" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
@@ -483,7 +564,7 @@
         <x:v>7</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:3">
+    <x:row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A9" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
@@ -494,7 +575,7 @@
         <x:v>8</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:3">
+    <x:row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <x:c r="A10" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
@@ -512,4 +593,104 @@
   <x:headerFooter/>
   <x:tableParts count="0"/>
 </x:worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0100-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C7"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0"/>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A1" s="1" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B1" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C1" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C2" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="C4" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C7" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="A1" r:id="rId7"/>
+  </x:hyperlinks>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>